--- a/plots/countries/plot data/Cyprus.xlsx
+++ b/plots/countries/plot data/Cyprus.xlsx
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.503185026397379</v>
+        <v>0.504854181909721</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>1.23658827060781</v>
+        <v>1.23766055767305</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.727925004732273</v>
+        <v>0.727925526293873</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.153069013394632</v>
+        <v>-0.153067157310358</v>
       </c>
     </row>
     <row r="10">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.929380551046799</v>
+        <v>0.931305562513586</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>1.23875308607972</v>
+        <v>1.23868067221656</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.687862955441364</v>
+        <v>0.687856312022964</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.166986945766477</v>
+        <v>-0.166983233597929</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>0.713488736896477</v>
+        <v>0.715599983649835</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>1.38653033790988</v>
+        <v>1.38593474269305</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.762121206657852</v>
+        <v>0.762116793430652</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.172654461456125</v>
+        <v>-0.172648893203303</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>0.754912683982086</v>
+        <v>0.757314597023828</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>1.40213712086094</v>
+        <v>1.39978301110277</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.833495504603504</v>
+        <v>0.833493565926046</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.174812279875196</v>
+        <v>-0.1748048555381</v>
       </c>
     </row>
     <row r="37">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>0.768025961545465</v>
+        <v>0.770404667697915</v>
       </c>
     </row>
     <row r="42">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>1.45982626848693</v>
+        <v>1.45499648896574</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>0.870223718084292</v>
+        <v>0.870226440680942</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.183359421919067</v>
+        <v>-0.183350141497697</v>
       </c>
     </row>
     <row r="46">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>0.755401239480159</v>
+        <v>0.758029999864733</v>
       </c>
     </row>
     <row r="51">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>1.55046988464981</v>
+        <v>1.54316649605972</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.839714866471959</v>
+        <v>0.839713513902937</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.180045505154632</v>
+        <v>-0.180034368648988</v>
       </c>
     </row>
     <row r="55">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>0.856108833036071</v>
+        <v>0.85869117964206</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>1.60225649970621</v>
+        <v>1.59304716107408</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>0.904119939304911</v>
+        <v>0.904123292609904</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.185370681114916</v>
+        <v>-0.185357688524998</v>
       </c>
     </row>
     <row r="64">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>0.755111489474092</v>
+        <v>0.757967097201497</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>1.67108013640535</v>
+        <v>1.65924585319072</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.876050846430382</v>
+        <v>0.876049392006321</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.184230360871411</v>
+        <v>-0.184215512197219</v>
       </c>
     </row>
     <row r="73">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>0.757876529469801</v>
+        <v>0.760987993151652</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>1.74975048713572</v>
+        <v>1.73588392826352</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>0.840124587686788</v>
+        <v>0.840120940428737</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.190507746301121</v>
+        <v>-0.190491041542655</v>
       </c>
     </row>
     <row r="82">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>0.782975282220777</v>
+        <v>0.786057737291013</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>1.79790837017162</v>
+        <v>1.780786241223</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>0.852948468943515</v>
+        <v>0.852943829762331</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.198395368082089</v>
+        <v>-0.198376807239349</v>
       </c>
     </row>
     <row r="91">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>0.799264276393049</v>
+        <v>0.802311921129347</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>1.83845751533218</v>
+        <v>1.82190808304014</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>0.882170554309285</v>
+        <v>0.882165294034441</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.142525558546448</v>
+        <v>-0.142505141619434</v>
       </c>
     </row>
     <row r="100">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>0.745088645289012</v>
+        <v>0.747337491915446</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>1.90128547859156</v>
+        <v>1.88116027067639</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>0.875279390188763</v>
+        <v>0.875273899224961</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.168620033294595</v>
+        <v>-0.168595250977806</v>
       </c>
     </row>
     <row r="109">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>0.756529847301027</v>
+        <v>0.759612302371263</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>1.88575358331601</v>
+        <v>1.86341230728033</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>0.918241875117567</v>
+        <v>0.918242374804029</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.201964533496705</v>
+        <v>-0.201935385790142</v>
       </c>
     </row>
     <row r="118">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>0.783622545462425</v>
+        <v>0.785753600616698</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>1.9972240792073</v>
+        <v>1.97275353863226</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>0.932754283247126</v>
+        <v>0.932752399729926</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.21405163757681</v>
+        <v>-0.214018124480472</v>
       </c>
     </row>
     <row r="127">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>0.863877855724268</v>
+        <v>0.86235587449978</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>2.07607498173535</v>
+        <v>2.07438222737779</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>1.0147831846786</v>
+        <v>1.01478064398875</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.214587228352186</v>
+        <v>-0.214549349866073</v>
       </c>
     </row>
     <row r="136">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>0.911908931417756</v>
+        <v>0.903362040960613</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>2.11544276345031</v>
+        <v>2.11337395406751</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>1.00318636005886</v>
+        <v>1.00318807335942</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.220869759349343</v>
+        <v>-0.220827515473456</v>
       </c>
     </row>
     <row r="145">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6850201077</v>
+        <v>0.6849728077</v>
       </c>
     </row>
     <row r="148">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>0.87169453545808</v>
+        <v>0.867344531929509</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>2.10278613295535</v>
+        <v>2.1004601656759</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>1.05955252641609</v>
+        <v>1.05954722940568</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.222534371559803</v>
+        <v>-0.222487762294141</v>
       </c>
     </row>
     <row r="154">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9299653782245</v>
+        <v>0.898655604367357</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>2.23928340001335</v>
+        <v>2.23726511637836</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>1.07203379220812</v>
+        <v>1.07202786260101</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.182935033285962</v>
+        <v>-0.182888395308259</v>
       </c>
     </row>
     <row r="163">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6427113468</v>
+        <v>0.6427208068</v>
       </c>
     </row>
     <row r="166">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>0.907259298606125</v>
+        <v>0.879594902134696</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>2.32914038821808</v>
+        <v>2.32702408710821</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>1.09384614957213</v>
+        <v>1.09383974032368</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.24988570693801</v>
+        <v>-0.249839040248264</v>
       </c>
     </row>
     <row r="172">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>0.64725966225</v>
+        <v>0.64727969275</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8023474504388</v>
+        <v>0.767198033967372</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>2.33347096646196</v>
+        <v>2.32886992816436</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>0.929896583848302</v>
+        <v>0.929892825779401</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.277700314869247</v>
+        <v>-0.27765361946746</v>
       </c>
     </row>
     <row r="181">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>0.59113258135</v>
+        <v>0.59113859585</v>
       </c>
     </row>
     <row r="184">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>0.699920015721272</v>
+        <v>0.670068720021272</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>2.3803769851889</v>
+        <v>2.37487264179452</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.809865893214224</v>
+        <v>0.809862404958801</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.265082907100413</v>
+        <v>-0.265038039070858</v>
       </c>
     </row>
     <row r="190">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6485826909</v>
+        <v>0.6485863535</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5747601629</v>
+        <v>0.579462943814286</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>2.31003111475801</v>
+        <v>2.30417384418744</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.811537147621277</v>
+        <v>0.811536282662444</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.300822799971647</v>
+        <v>-0.300779759314324</v>
       </c>
     </row>
     <row r="199">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>0.62061061175</v>
+        <v>0.62061694395</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>0.460455860325</v>
+        <v>0.460339060325</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>2.13452085809305</v>
+        <v>2.12927695942678</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>0.772128813251419</v>
+        <v>0.772127469049074</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.293664489207066</v>
+        <v>-0.293623275921976</v>
       </c>
     </row>
     <row r="208">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5474827783</v>
+        <v>0.5474863217</v>
       </c>
     </row>
     <row r="211">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>0.5401401213</v>
+        <v>0.5400418213</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>1.923542442456</v>
+        <v>1.9158744893143</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>1.01319807431525</v>
+        <v>1.01319832334978</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.297325622391564</v>
+        <v>-0.297285585987961</v>
       </c>
     </row>
     <row r="217">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>0.49499610415</v>
+        <v>0.49499672635</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>0.6963036538658</v>
+        <v>0.6798721538658</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>1.85657369396467</v>
+        <v>1.84863416162784</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>1.24175881066217</v>
+        <v>1.24175423563329</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.299147712091856</v>
+        <v>-0.299108852569741</v>
       </c>
     </row>
     <row r="226">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>0.55758571785</v>
+        <v>0.55760029165</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>0.606779541397062</v>
+        <v>0.596149841397063</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>1.92502617604246</v>
+        <v>1.91140107724031</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>1.15702980879884</v>
+        <v>1.15702382008494</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.296144327331299</v>
+        <v>-0.29610664469067</v>
       </c>
     </row>
     <row r="235">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>0.462392229432868</v>
+        <v>0.462381206985011</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>0.551086762</v>
+        <v>0.5511005563</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>0.599761931637313</v>
+        <v>0.597049131637312</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>2.03703989014041</v>
+        <v>2.02972195595409</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>1.18518875937071</v>
+        <v>1.18518224200859</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.190929301362296</v>
+        <v>-0.190892795603155</v>
       </c>
     </row>
     <row r="244">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>0.476117447662316</v>
+        <v>0.476115386340888</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>0.56108505466935</v>
+        <v>0.56110940273485</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>0.61813512859535</v>
+        <v>0.61556519826135</v>
       </c>
     </row>
     <row r="249">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>2.10331604188219</v>
+        <v>2.09361372447565</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>1.24889579449735</v>
+        <v>1.24889446298997</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.307066777065456</v>
+        <v>-0.307031448187803</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.633614399186953</v>
+        <v>0.633614399186952</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>0.481796433573211</v>
+        <v>0.481790624394639</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>0.4907130474733</v>
+        <v>0.4903311135868</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>0.55544589179275</v>
+        <v>0.54630691283359</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>2.11634946247638</v>
+        <v>2.10540978624574</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>1.19729124052065</v>
+        <v>1.1983722352472</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.302345601136918</v>
+        <v>-0.302311449140752</v>
       </c>
     </row>
     <row r="262">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>0.495531264979878</v>
+        <v>0.495523844222736</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>0.5688038320196</v>
+        <v>0.5682791255156</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>0.56762228860185</v>
+        <v>0.5551597321275</v>
       </c>
     </row>
     <row r="267">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>2.1413953341639</v>
+        <v>2.13235376594236</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>1.16896025757522</v>
+        <v>1.17075691329346</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.297074143571268</v>
+        <v>-0.297041168456589</v>
       </c>
     </row>
     <row r="271">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>0.536443133040933</v>
+        <v>0.535907825283595</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>0.576594143862663</v>
+        <v>0.560807961835926</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>1.91786988046195</v>
+        <v>1.90964808966378</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>1.26617495769329</v>
+        <v>1.26832072566188</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.298575792028076</v>
+        <v>-0.298543993794884</v>
       </c>
     </row>
     <row r="280">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>0.506694216460667</v>
+        <v>0.506195533577124</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>0.578379551263863</v>
+        <v>0.561524199948813</v>
       </c>
     </row>
     <row r="285">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>2.05326518205033</v>
+        <v>1.93685606616301</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>1.28478705567299</v>
+        <v>1.29018697591686</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.235354377911498</v>
+        <v>-0.235326265865294</v>
       </c>
     </row>
     <row r="289">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>0.533602845246413</v>
+        <v>0.528611005079836</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>0.536482214316332</v>
+        <v>0.536072855565862</v>
       </c>
     </row>
     <row r="292">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>0.58305046296595</v>
+        <v>0.5661159969975</v>
       </c>
     </row>
     <row r="294">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>2.02562208416809</v>
+        <v>1.99337281839851</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>1.31333592903229</v>
+        <v>1.32448137693168</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.299414089138388</v>
+        <v>-0.299389663279173</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.665311971053369</v>
+        <v>0.667156889042552</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.530453189381606</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.479791502127964</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.56572470888955</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3.05974181147445</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2.16071586972839</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.40471516911528</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.310576749695012</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.672305418366471</v>
       </c>
     </row>
   </sheetData>
